--- a/medicine/Enfance/Jeanine_Rahir/Jeanine_Rahir.xlsx
+++ b/medicine/Enfance/Jeanine_Rahir/Jeanine_Rahir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeanine Rahir, née le 4 février 1956 à Verviers (province de Liège), est une autrice de bande dessinée belge.
 </t>
@@ -511,19 +523,21 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jeanine Rahir naît le 4 février 1956 à Verviers[1]. Elle a une sœur jumelle Renée[2] avec qui elle partage un goût commun de la science-fiction et la passion de la faune et de la flore[3]. Elle suit quelques cours dans une école de beaux-arts dont elle ne garde pas de souvenir marquant[4].
-Jeanine Rahir commence sa carrière comme illustratrice animalière[5].
-Elle aborde la bande dessinée par la mise en couleur de la série Bobul et Schnouf de Guy Counhaye parue dans Spirou[6] de 1983 à 1984 et publié en album en 1987 aux éditions Dessain[7].
-C'est en autodidacte[2] qu'elle fait son entrée au journal Tintin[8] en 1985 avec de courts récits souvent de science-fiction seule, avec sa sœur ou encore avec Olivier Grenson. Elle lance la série Blanche Hermine qui ne connaît pas d'album et illustre diverses rubriques rédactionnelles jusqu'en 1988[8].
-On retrouve également sa signature dans 4 numéros de Super Tintin où elle livre différents courts récits de 1985 à 1987[9].
-En 1989, elle écrit pour la dessinatrice Marie-José Sacré le scénario de Les Voyages de Monsieur Victor publié aux Éditions Glénat, album qui sera primé au festival de BD à Sierre[5]. 
-En 1991, elle entame la trilogie d'aventure coécrite avec sa sœur Barry Lan[5] dans la collection « Grafica » chez Glénat le même éditeur. Elle livre ainsi Vous veillerez sur mon sommeil en 1992. L'année suivante elle publie Partout l'éternité qui lui vaut d'être primée au festival BD Durbuy la même année. C'est en 1994 que le tome L'Irbis clôture cette saga.
-Après un album publicitaire pour le compte de l'Abbaye Notre-Dame de Leffe[5], elle se lance seule dans l'aventure de Chevalier Walder, une série d'heroic fantasy[5], une série autour de l'ordre religieux des chevaliers Teutoniques qui compte sept volumes dans la collection « Vécu » des mêmes éditions.
-Le deuxième opus de la série : Au bout de l'enfer est prépublié en noir et blanc dans la revue Vécu no 19 de septembre 1999[10].
-En outre, elle participe à l'album collectif L'Oiseau de la paix en 1986 et elle illustre en 1991 l'ouvrage C'est mon anniversaire de Geneviève Laurencin publié aux éditions Casterman. Elle réalise encore l'illustration de cartes postales pour Colorprint[11].
-En 2003, elle demeure dans les Ardennes belges[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeanine Rahir naît le 4 février 1956 à Verviers. Elle a une sœur jumelle Renée avec qui elle partage un goût commun de la science-fiction et la passion de la faune et de la flore. Elle suit quelques cours dans une école de beaux-arts dont elle ne garde pas de souvenir marquant.
+Jeanine Rahir commence sa carrière comme illustratrice animalière.
+Elle aborde la bande dessinée par la mise en couleur de la série Bobul et Schnouf de Guy Counhaye parue dans Spirou de 1983 à 1984 et publié en album en 1987 aux éditions Dessain.
+C'est en autodidacte qu'elle fait son entrée au journal Tintin en 1985 avec de courts récits souvent de science-fiction seule, avec sa sœur ou encore avec Olivier Grenson. Elle lance la série Blanche Hermine qui ne connaît pas d'album et illustre diverses rubriques rédactionnelles jusqu'en 1988.
+On retrouve également sa signature dans 4 numéros de Super Tintin où elle livre différents courts récits de 1985 à 1987.
+En 1989, elle écrit pour la dessinatrice Marie-José Sacré le scénario de Les Voyages de Monsieur Victor publié aux Éditions Glénat, album qui sera primé au festival de BD à Sierre. 
+En 1991, elle entame la trilogie d'aventure coécrite avec sa sœur Barry Lan dans la collection « Grafica » chez Glénat le même éditeur. Elle livre ainsi Vous veillerez sur mon sommeil en 1992. L'année suivante elle publie Partout l'éternité qui lui vaut d'être primée au festival BD Durbuy la même année. C'est en 1994 que le tome L'Irbis clôture cette saga.
+Après un album publicitaire pour le compte de l'Abbaye Notre-Dame de Leffe, elle se lance seule dans l'aventure de Chevalier Walder, une série d'heroic fantasy, une série autour de l'ordre religieux des chevaliers Teutoniques qui compte sept volumes dans la collection « Vécu » des mêmes éditions.
+Le deuxième opus de la série : Au bout de l'enfer est prépublié en noir et blanc dans la revue Vécu no 19 de septembre 1999.
+En outre, elle participe à l'album collectif L'Oiseau de la paix en 1986 et elle illustre en 1991 l'ouvrage C'est mon anniversaire de Geneviève Laurencin publié aux éditions Casterman. Elle réalise encore l'illustration de cartes postales pour Colorprint.
+En 2003, elle demeure dans les Ardennes belges.
 </t>
         </is>
       </c>
@@ -554,60 +568,291 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums de bande dessinée
-Bobul et Schnouf
-Bobul et Schnouf, H. Dessain, 1987Scénario et dessin : Guy Counhaye - Couleurs : Jeanine et Renée Rahir
-Les Voyages de Monsieur Victor
-Les Voyages de Monsieur Victor, Glénat, Grenoble, 1989Scénario : Jeanine Rahir - Dessin : Marie-José Sacré - Couleurs : quadrichromie -  (ISBN 2-7234-1099-4)
-Barry Lan
-1. Vous veillerez sur mon sommeil, Glénat, coll. « Grafica », Grenoble, avril 1991Scénario : Jeanine et Renée Rahir - Dessin et couleurs : Jeanine Rahir -  (ISBN 272341308X)
-2. Partout l'éternité[12], Glénat, coll. « Grafica », Grenoble, juillet 1992Scénario : Jeanine et Renée Rahir - Dessin et couleurs : Jeanine Rahir -  (ISBN 272341454X)
-3. L'Irbis, Glénat, coll. « Grafica », Grenoble, septembre 1994Scénario : Jeanine et Renée Rahir - Dessin et couleurs : Jeanine Rahir -  (ISBN 2723416925)
-La Croix Mosane
-1. La Croix Mosane, Glénat, coll. « Histoires et mystères », Grenoble, janvier 1993Scénario : Laurence Frelin - Dessin : Jeanine Rahir - Couleurs : noir et blanc -  (ISBN 2-7234-1632-1)
-Chevalier Walder
-1. Le Prisonnier de Dieu, Glénat, coll. « Vécu », Grenoble, avril 1997Scénario et dessin : Jeanine Rahir - Couleurs : quadrichromie -  (ISBN 2-7234-2215-1)
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bobul et Schnouf
+Bobul et Schnouf, H. Dessain, 1987Scénario et dessin : Guy Counhaye - Couleurs : Jeanine et Renée Rahir</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jeanine_Rahir</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanine_Rahir</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Les Voyages de Monsieur Victor</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Voyages de Monsieur Victor, Glénat, Grenoble, 1989Scénario : Jeanine Rahir - Dessin : Marie-José Sacré - Couleurs : quadrichromie -  (ISBN 2-7234-1099-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jeanine_Rahir</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanine_Rahir</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Barry Lan</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1. Vous veillerez sur mon sommeil, Glénat, coll. « Grafica », Grenoble, avril 1991Scénario : Jeanine et Renée Rahir - Dessin et couleurs : Jeanine Rahir -  (ISBN 272341308X)
+2. Partout l'éternité, Glénat, coll. « Grafica », Grenoble, juillet 1992Scénario : Jeanine et Renée Rahir - Dessin et couleurs : Jeanine Rahir -  (ISBN 272341454X)
+3. L'Irbis, Glénat, coll. « Grafica », Grenoble, septembre 1994Scénario : Jeanine et Renée Rahir - Dessin et couleurs : Jeanine Rahir -  (ISBN 2723416925)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jeanine_Rahir</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanine_Rahir</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>La Croix Mosane</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1. La Croix Mosane, Glénat, coll. « Histoires et mystères », Grenoble, janvier 1993Scénario : Laurence Frelin - Dessin : Jeanine Rahir - Couleurs : noir et blanc -  (ISBN 2-7234-1632-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jeanine_Rahir</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanine_Rahir</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Chevalier Walder</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1. Le Prisonnier de Dieu, Glénat, coll. « Vécu », Grenoble, avril 1997Scénario et dessin : Jeanine Rahir - Couleurs : quadrichromie -  (ISBN 2-7234-2215-1)
 2. Au bout de l'enfer, Glénat, coll. « Vécu », Grenoble, août 1998Scénario et dessin : Jeanine Rahir - Couleurs : quadrichromie -  (ISBN 2-7234-2549-5)
 3. Mortelle victoire, Glénat, coll. « Vécu », Grenoble, août 1999Scénario et dessin : Jeanine Rahir - Couleurs : quadrichromie -  (ISBN 2-7234-2835-4)
 4. Le Chevalier au corbeau, Glénat, coll. « Vécu », Grenoble, août 2000Scénario et dessin : Jeanine Rahir - Couleurs : quadrichromie -  (ISBN 2-7234-3131-2)
 5. Trois de cœur, Glénat, coll. « Vécu », Grenoble, octobre 2001Scénario, dessin et couleurs : Jeanine Rahir -  (ISBN 2-7234-3413-3)
 6. Chevalier teutonique, Glénat, coll. « Vécu », Grenoble, octobre 2002Scénario, dessin et couleurs : Jeanine Rahir -  (ISBN 2-7234-3729-9)
-7. Terre maudite, Glénat, coll. « Vécu », Grenoble, octobre 2003Scénario, dessin et couleurs : Jeanine Rahir -  (ISBN 2-7234-4161-X)
-Collectifs
-L'Oiseau de la paix[13], Association du livre de la paix, janvier 1986Scénario et couleurs : collectif - Dessin : collectif dont Jeanine Rahir,40 auteurs réunis pour un album pour la paix.
-Illustration
-C'est mon anniversaire, textes de Geneviève Laurencin, Casterman, coll. « Jardin d'enfants », 1991  (ISBN 9782203174061).</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jeanine_Rahir</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jeanine_Rahir</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+7. Terre maudite, Glénat, coll. « Vécu », Grenoble, octobre 2003Scénario, dessin et couleurs : Jeanine Rahir -  (ISBN 2-7234-4161-X)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jeanine_Rahir</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanine_Rahir</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Collectifs</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L'Oiseau de la paix, Association du livre de la paix, janvier 1986Scénario et couleurs : collectif - Dessin : collectif dont Jeanine Rahir,40 auteurs réunis pour un album pour la paix.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jeanine_Rahir</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanine_Rahir</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Illustration</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>C'est mon anniversaire, textes de Geneviève Laurencin, Casterman, coll. « Jardin d'enfants », 1991  (ISBN 9782203174061).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jeanine_Rahir</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanine_Rahir</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1989 :  prix au festival de BD à Sierre pour Les Voyages de Monsieur Victor avec  Marie-José Sacré[5] ;
-1992 :  prix au festival BD Durbuy pour Partout l'éternité[12] avec Renée Rahir.</t>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1989 :  prix au festival de BD à Sierre pour Les Voyages de Monsieur Victor avec  Marie-José Sacré ;
+1992 :  prix au festival BD Durbuy pour Partout l'éternité avec Renée Rahir.</t>
         </is>
       </c>
     </row>
